--- a/soapUIJenkinsProject/src/main/resources/JDD/file1.xlsx
+++ b/soapUIJenkinsProject/src/main/resources/JDD/file1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/S2M/workspace_webservice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/git/testAutomation/soapUIJenkinsProject/src/main/resources/JDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33580" windowHeight="19620" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33580" windowHeight="19620" tabRatio="500" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="0_GetAgentAllowedAccount" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="527">
   <si>
     <t>appVersion</t>
   </si>
@@ -1758,6 +1758,9 @@
       </rPr>
       <t xml:space="preserve"> FMTR</t>
     </r>
+  </si>
+  <si>
+    <t>1233</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2233,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2645,7 +2648,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -4179,7 +4181,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6334,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6399,6 +6401,9 @@
       <c r="B2" s="52" t="s">
         <v>26</v>
       </c>
+      <c r="C2" s="52" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>205</v>
       </c>
@@ -6416,9 +6421,6 @@
       </c>
       <c r="I2" s="52" t="s">
         <v>240</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>241</v>
       </c>
       <c r="K2" s="48" t="s">
         <v>32</v>
@@ -6599,8 +6601,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="158" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:12" s="52" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="52">
+        <v>1</v>
+      </c>
+      <c r="G8" s="52">
+        <v>3369888991</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6614,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
